--- a/data/calcs/20170118/names.xlsx
+++ b/data/calcs/20170118/names.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2800" windowWidth="31160" windowHeight="16340" tabRatio="988"/>
+    <workbookView xWindow="3080" yWindow="2800" windowWidth="31160" windowHeight="16340" tabRatio="988" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -2902,9 +2902,6 @@
     <t>modern</t>
   </si>
   <si>
-    <t>medieval</t>
-  </si>
-  <si>
     <t>mediaeval-byzantine</t>
   </si>
   <si>
@@ -2975,6 +2972,9 @@
   </si>
   <si>
     <t>gbodard, vvitale</t>
+  </si>
+  <si>
+    <t>medieval-byzantine</t>
   </si>
 </sst>
 </file>
@@ -3422,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3506,10 +3506,10 @@
         <v>296</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="K3" s="6"/>
       <c r="M3" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="K4" s="6"/>
       <c r="M4" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3568,10 +3568,10 @@
         <v>298</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3591,10 +3591,10 @@
         <v>299</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="K7" s="6"/>
       <c r="M7" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="K8" s="6"/>
       <c r="M8" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="K9" s="6"/>
       <c r="M9" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="K10" s="6"/>
       <c r="M10" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="76" x14ac:dyDescent="0.2">
@@ -3698,10 +3698,10 @@
         <v>304</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="76" x14ac:dyDescent="0.2">
@@ -3721,10 +3721,10 @@
         <v>305</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3744,10 +3744,10 @@
         <v>306</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3767,10 +3767,10 @@
         <v>307</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -3790,10 +3790,10 @@
         <v>308</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3813,10 +3813,10 @@
         <v>309</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="K17" s="6"/>
       <c r="M17" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="K18" s="6"/>
       <c r="M18" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="K19" s="6"/>
       <c r="M19" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="K22" s="6"/>
       <c r="M22" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="K23" s="6"/>
       <c r="M23" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="K24" s="6"/>
       <c r="M24" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="K25" s="6"/>
       <c r="M25" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K26" s="6"/>
       <c r="M26" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="K27" s="6"/>
       <c r="M27" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="K28" s="6"/>
       <c r="M28" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="K29" s="6"/>
       <c r="M29" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="K30" s="6"/>
       <c r="M30" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="K31" s="6"/>
       <c r="M31" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="K32" s="6"/>
       <c r="M32" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="K33" s="6"/>
       <c r="M33" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="K34" s="6"/>
       <c r="M34" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="K35" s="6"/>
       <c r="M35" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="K36" s="6"/>
       <c r="M36" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="K37" s="6"/>
       <c r="M37" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="K38" s="6"/>
       <c r="M38" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="K39" s="6"/>
       <c r="M39" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="K40" s="6"/>
       <c r="M40" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="K41" s="6"/>
       <c r="M41" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="K42" s="6"/>
       <c r="M42" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="K43" s="6"/>
       <c r="M43" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="K44" s="6"/>
       <c r="M44" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="K45" s="6"/>
       <c r="M45" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="K46" s="6"/>
       <c r="M46" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="K47" s="6"/>
       <c r="M47" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="K48" s="6"/>
       <c r="M48" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="K49" s="6"/>
       <c r="M49" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="M50" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K51" s="6"/>
       <c r="M51" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="K52" s="6"/>
       <c r="M52" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="K53" s="6"/>
       <c r="M53" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="K54" s="6"/>
       <c r="M54" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="K55" s="6"/>
       <c r="M55" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="K56" s="6"/>
       <c r="M56" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="K57" s="6"/>
       <c r="M57" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="K58" s="6"/>
       <c r="M58" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="K59" s="6"/>
       <c r="M59" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="K60" s="6"/>
       <c r="M60" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="K61" s="6"/>
       <c r="M61" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="K62" s="6"/>
       <c r="M62" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="K63" s="6"/>
       <c r="M63" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="K64" s="6"/>
       <c r="M64" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="K65" s="6"/>
       <c r="M65" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="K66" s="6"/>
       <c r="M66" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="K67" s="6"/>
       <c r="M67" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="K68" s="6"/>
       <c r="M68" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="K69" s="6"/>
       <c r="M69" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="K70" s="6"/>
       <c r="M70" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="K71" s="6"/>
       <c r="M71" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="K72" s="6"/>
       <c r="M72" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="K73" s="6"/>
       <c r="M73" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="K74" s="6"/>
       <c r="M74" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="K75" s="6"/>
       <c r="M75" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="K76" s="6"/>
       <c r="M76" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="K77" s="6"/>
       <c r="M77" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -5066,10 +5066,10 @@
         <v>351</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="K79" s="6"/>
       <c r="M79" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="K80" s="6"/>
       <c r="M80" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="K81" s="6"/>
       <c r="M81" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="K82" s="6"/>
       <c r="M82" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="K83" s="6"/>
       <c r="M83" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="K84" s="6"/>
       <c r="M84" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="K85" s="6"/>
       <c r="M85" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="K86" s="6"/>
       <c r="M86" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="K87" s="6"/>
       <c r="M87" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="K88" s="6"/>
       <c r="M88" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -5299,10 +5299,10 @@
         <v>362</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="K90" s="6"/>
       <c r="M90" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="38" x14ac:dyDescent="0.2">
@@ -5340,10 +5340,10 @@
         <v>363</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="K92" s="6"/>
       <c r="M92" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="K93" s="6"/>
       <c r="M93" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -5402,10 +5402,10 @@
         <v>365</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="K95" s="6"/>
       <c r="M95" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="K96" s="6"/>
       <c r="M96" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="K97" s="6"/>
       <c r="M97" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="K98" s="6"/>
       <c r="M98" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="K99" s="6"/>
       <c r="M99" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="K100" s="6"/>
       <c r="M100" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="K101" s="6"/>
       <c r="M101" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="K102" s="6"/>
       <c r="M102" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="76" x14ac:dyDescent="0.2">
@@ -5587,10 +5587,10 @@
         <v>372</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="K104" s="6"/>
       <c r="M104" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K105" s="6"/>
       <c r="M105" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="K106" s="6"/>
       <c r="M106" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="K107" s="6"/>
       <c r="M107" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -5685,10 +5685,10 @@
         <v>374</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="K109" s="6"/>
       <c r="M109" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="K110" s="6"/>
       <c r="M110" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="K111" s="6"/>
       <c r="M111" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="K112" s="6"/>
       <c r="M112" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="K113" s="6"/>
       <c r="M113" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="K114" s="6"/>
       <c r="M114" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="K115" s="6"/>
       <c r="M115" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="K116" s="6"/>
       <c r="M116" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="K117" s="6"/>
       <c r="M117" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="K118" s="6"/>
       <c r="M118" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="K119" s="6"/>
       <c r="M119" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="228" x14ac:dyDescent="0.2">
@@ -5939,10 +5939,10 @@
         <v>385</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M120" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="K121" s="6"/>
       <c r="M121" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="K122" s="6"/>
       <c r="M122" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="K123" s="6"/>
       <c r="M123" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="K124" s="6"/>
       <c r="M124" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="K125" s="6"/>
       <c r="M125" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="K126" s="6"/>
       <c r="M126" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="K127" s="6"/>
       <c r="M127" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="K128" s="6"/>
       <c r="M128" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="K129" s="6"/>
       <c r="M129" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="K130" s="6"/>
       <c r="M130" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="K131" s="6"/>
       <c r="M131" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="K132" s="6"/>
       <c r="M132" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="K133" s="6"/>
       <c r="M133" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="K134" s="6"/>
       <c r="M134" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="K135" s="6"/>
       <c r="M135" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K136" s="6"/>
       <c r="M136" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="K137" s="6"/>
       <c r="M137" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="K138" s="6"/>
       <c r="M138" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="K139" s="6"/>
       <c r="M139" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="K140" s="6"/>
       <c r="M140" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="K141" s="6"/>
       <c r="M141" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="K142" s="6"/>
       <c r="M142" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="K143" s="6"/>
       <c r="M143" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="K144" s="6"/>
       <c r="M144" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="K145" s="6"/>
       <c r="M145" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -6484,10 +6484,10 @@
         <v>408</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M146" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -6507,10 +6507,10 @@
         <v>409</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M147" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="K148" s="6"/>
       <c r="M148" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -6551,7 +6551,7 @@
         <v>411</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -6571,7 +6571,7 @@
         <v>412</v>
       </c>
       <c r="M150" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>413</v>
       </c>
       <c r="M151" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -6611,7 +6611,7 @@
         <v>414</v>
       </c>
       <c r="M152" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>415</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -6651,7 +6651,7 @@
         <v>416</v>
       </c>
       <c r="M154" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>417</v>
       </c>
       <c r="M155" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -6688,7 +6688,7 @@
         <v>170</v>
       </c>
       <c r="M156" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -6708,7 +6708,7 @@
         <v>418</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -6728,7 +6728,7 @@
         <v>419</v>
       </c>
       <c r="M158" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -6748,7 +6748,7 @@
         <v>420</v>
       </c>
       <c r="M159" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -6768,7 +6768,7 @@
         <v>421</v>
       </c>
       <c r="M160" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -6788,7 +6788,7 @@
         <v>422</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -6805,7 +6805,7 @@
         <v>176</v>
       </c>
       <c r="M162" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -6825,7 +6825,7 @@
         <v>423</v>
       </c>
       <c r="M163" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -6845,7 +6845,7 @@
         <v>424</v>
       </c>
       <c r="M164" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -6862,7 +6862,7 @@
         <v>178</v>
       </c>
       <c r="M165" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>179</v>
       </c>
       <c r="M166" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -6899,7 +6899,7 @@
         <v>383</v>
       </c>
       <c r="M167" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
         <v>425</v>
       </c>
       <c r="M168" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -6936,7 +6936,7 @@
         <v>181</v>
       </c>
       <c r="M169" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -6956,7 +6956,7 @@
         <v>426</v>
       </c>
       <c r="M170" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -6976,7 +6976,7 @@
         <v>427</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -6993,7 +6993,7 @@
         <v>184</v>
       </c>
       <c r="M172" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -7013,7 +7013,7 @@
         <v>428</v>
       </c>
       <c r="M173" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -7033,7 +7033,7 @@
         <v>429</v>
       </c>
       <c r="M174" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -7053,7 +7053,7 @@
         <v>430</v>
       </c>
       <c r="M175" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -7073,7 +7073,7 @@
         <v>431</v>
       </c>
       <c r="M176" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
@@ -7090,7 +7090,7 @@
         <v>189</v>
       </c>
       <c r="M177" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -7107,7 +7107,7 @@
         <v>190</v>
       </c>
       <c r="M178" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
@@ -7127,7 +7127,7 @@
         <v>432</v>
       </c>
       <c r="M179" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
@@ -7147,7 +7147,7 @@
         <v>433</v>
       </c>
       <c r="M180" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>434</v>
       </c>
       <c r="M181" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -7187,7 +7187,7 @@
         <v>435</v>
       </c>
       <c r="M182" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
@@ -7207,7 +7207,7 @@
         <v>436</v>
       </c>
       <c r="M183" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -15788,8 +15788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -15812,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15836,7 +15836,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15844,7 +15844,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15852,7 +15852,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15860,7 +15860,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15876,7 +15876,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15892,7 +15892,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -15908,7 +15908,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -15916,7 +15916,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -15924,7 +15924,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -15932,7 +15932,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -15940,7 +15940,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -15956,7 +15956,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -15972,7 +15972,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -16004,7 +16004,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -16028,7 +16028,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -16068,7 +16068,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -16076,7 +16076,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -16100,7 +16100,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -16124,7 +16124,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -16140,7 +16140,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -16148,7 +16148,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -16172,7 +16172,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -16180,7 +16180,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -16196,7 +16196,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -16212,7 +16212,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -16220,7 +16220,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -16236,7 +16236,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -16244,7 +16244,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -16252,7 +16252,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -16260,7 +16260,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -16268,7 +16268,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -16276,7 +16276,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -16284,7 +16284,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -16292,7 +16292,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -16300,7 +16300,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -16332,7 +16332,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -16340,7 +16340,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -16348,7 +16348,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -16356,7 +16356,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -16364,7 +16364,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -16372,7 +16372,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -16380,7 +16380,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -16388,7 +16388,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -16396,7 +16396,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -16404,7 +16404,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -16420,7 +16420,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -16444,7 +16444,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -16457,10 +16457,10 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -16468,7 +16468,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -16476,7 +16476,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -16484,7 +16484,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -16492,7 +16492,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -16516,7 +16516,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -16532,7 +16532,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -16556,7 +16556,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -16564,7 +16564,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -16580,7 +16580,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -16604,7 +16604,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -16612,7 +16612,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -16628,7 +16628,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -16636,7 +16636,7 @@
         <v>98</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -16644,7 +16644,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -16676,7 +16676,7 @@
         <v>101</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -16692,7 +16692,7 @@
         <v>103</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -16700,7 +16700,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -16708,7 +16708,7 @@
         <v>105</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -16716,7 +16716,7 @@
         <v>106</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -16724,7 +16724,7 @@
         <v>107</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -16732,7 +16732,7 @@
         <v>108</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -16740,7 +16740,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -16756,7 +16756,7 @@
         <v>110</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -16764,7 +16764,7 @@
         <v>111</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -16772,7 +16772,7 @@
         <v>112</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -16788,7 +16788,7 @@
         <v>115</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -16796,7 +16796,7 @@
         <v>116</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -16804,7 +16804,7 @@
         <v>119</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -16820,7 +16820,7 @@
         <v>122</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -16828,7 +16828,7 @@
         <v>123</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -16836,7 +16836,7 @@
         <v>124</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -16868,7 +16868,7 @@
         <v>127</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -16876,7 +16876,7 @@
         <v>128</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -16884,7 +16884,7 @@
         <v>129</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -16892,7 +16892,7 @@
         <v>131</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -16916,7 +16916,7 @@
         <v>134</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -16924,7 +16924,7 @@
         <v>135</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -16932,7 +16932,7 @@
         <v>136</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -16948,7 +16948,7 @@
         <v>138</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -16964,7 +16964,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -16980,7 +16980,7 @@
         <v>142</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -16996,7 +16996,7 @@
         <v>143</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -17012,7 +17012,7 @@
         <v>144</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -17028,7 +17028,7 @@
         <v>145</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -17044,7 +17044,7 @@
         <v>148</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -17060,7 +17060,7 @@
         <v>149</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -17076,7 +17076,7 @@
         <v>151</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -17084,7 +17084,7 @@
         <v>152</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -17108,7 +17108,7 @@
         <v>154</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -17484,7 +17484,7 @@
         <v>223</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
